--- a/программы/10 класс. Практикум. Календарно-тематическое планирование.xlsx
+++ b/программы/10 класс. Практикум. Календарно-тематическое планирование.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Позиционные системы счисления. Основные понятия</t>
   </si>
@@ -68,128 +68,137 @@
     <t>Практическая работа №1 «Логические операции»</t>
   </si>
   <si>
+    <t>Практическая работа №2 «Логические формулы»</t>
+  </si>
+  <si>
+    <t>Логические схемы</t>
+  </si>
+  <si>
+    <t>Практическая работа №3 «Конструирование логических схем в электронных таблицах»</t>
+  </si>
+  <si>
+    <t>Логические функции на области числовых значений</t>
+  </si>
+  <si>
+    <t>Определение, свойства и описание алгоритма</t>
+  </si>
+  <si>
+    <t>Этапы алгоритмического решения задачи</t>
+  </si>
+  <si>
+    <t>Поиск данных: алгоритмы, программирование</t>
+  </si>
+  <si>
+    <t>Сортировка данных</t>
+  </si>
+  <si>
+    <t>Представление и обработка целых чисел</t>
+  </si>
+  <si>
+    <t>Представление и обработка вещественных чисел</t>
+  </si>
+  <si>
+    <t>Текстовые редакторы и процессоры</t>
+  </si>
+  <si>
+    <t>Специальные тексты</t>
+  </si>
+  <si>
+    <t>Электронная таблица: структура, данные, функции, передача данных между листами</t>
+  </si>
+  <si>
+    <t>Деловая графика</t>
+  </si>
+  <si>
+    <t>Фильтрация данных</t>
+  </si>
+  <si>
+    <t>Задачи на поиск решения и подбор параметров</t>
+  </si>
+  <si>
+    <t>Назначение и состав ЛКС</t>
+  </si>
+  <si>
+    <t>Классы и топологии ЛКС</t>
+  </si>
+  <si>
+    <t>Способы создания сайтов. Основы HTML</t>
+  </si>
+  <si>
+    <t>Оформление и разработка сайта</t>
+  </si>
+  <si>
+    <t>Контрольная работа №3  «Логические основы обработки информации»</t>
+  </si>
+  <si>
+    <t>Практическая работа №4 «Форматирование документа»</t>
+  </si>
+  <si>
+    <t>Практическая работа №5 «Создание математических текстов»</t>
+  </si>
+  <si>
+    <t>Практическая работа №6 «Вычисления по формулам»</t>
+  </si>
+  <si>
+    <t>Практическая работа №7 «Встроенные функции. Передача данных между листами»</t>
+  </si>
+  <si>
+    <t>Практическая работа №8 «Деловая графика»</t>
+  </si>
+  <si>
+    <t>Фильтрация данных.Практическая работа №9 «Фильтрация данных»</t>
+  </si>
+  <si>
+    <t>Практическая работа №10 «Задачи на поиск решения и подбор параметров»</t>
+  </si>
+  <si>
+    <t>Практическая работа №10«Задачи на поиск решения и подбор параметров»</t>
+  </si>
+  <si>
+    <t>Контрольная работа №4  «Технологии табличных вычислений»</t>
+  </si>
+  <si>
+    <t>Оформление и разработка сайта. Практическая работа №11 «Создание простейшего web-сайта по образцу»</t>
+  </si>
+  <si>
+    <t>Оформление и разработка сайта. Практическая работа №12 «Разработка  web-сайта на языке HTML»</t>
+  </si>
+  <si>
+    <t>Создание гиперссылок и таблиц. Практическая работа №13 «Разработка  web-сайта на языке HTML с использованием таблиц и гиперссылок»</t>
+  </si>
+  <si>
+    <t>Создание гиперссылок и таблиц. Практическая работа №13 «Создание   web-сайта с использованием конструктора сайтов»</t>
+  </si>
+  <si>
+    <t>Сроки планируемые</t>
+  </si>
+  <si>
+    <t xml:space="preserve">№ </t>
+  </si>
+  <si>
+    <t>Тема урока</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Логические формулы. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Решение логических задач. </t>
+  </si>
+  <si>
     <t>Логические формулы</t>
   </si>
   <si>
-    <t>Практическая работа №2 «Логические формулы»</t>
-  </si>
-  <si>
-    <t>Логические схемы</t>
-  </si>
-  <si>
-    <t>Практическая работа №3 «Конструирование логических схем в электронных таблицах»</t>
-  </si>
-  <si>
-    <t>Решение логических задач</t>
-  </si>
-  <si>
-    <t>Логические функции на области числовых значений</t>
-  </si>
-  <si>
-    <t>Определение, свойства и описание алгоритма</t>
-  </si>
-  <si>
-    <t>Этапы алгоритмического решения задачи</t>
-  </si>
-  <si>
-    <t>Поиск данных: алгоритмы, программирование</t>
-  </si>
-  <si>
-    <t>Сортировка данных</t>
-  </si>
-  <si>
-    <t>Представление и обработка целых чисел</t>
-  </si>
-  <si>
-    <t>Представление и обработка вещественных чисел</t>
-  </si>
-  <si>
-    <t>Текстовые редакторы и процессоры</t>
-  </si>
-  <si>
-    <t>Специальные тексты</t>
-  </si>
-  <si>
-    <t>Электронная таблица: структура, данные, функции, передача данных между листами</t>
-  </si>
-  <si>
-    <t>Деловая графика</t>
-  </si>
-  <si>
-    <t>Фильтрация данных</t>
-  </si>
-  <si>
-    <t>Задачи на поиск решения и подбор параметров</t>
-  </si>
-  <si>
-    <t>Назначение и состав ЛКС</t>
-  </si>
-  <si>
-    <t>Классы и топологии ЛКС</t>
-  </si>
-  <si>
-    <t>Способы создания сайтов. Основы HTML</t>
-  </si>
-  <si>
-    <t>Оформление и разработка сайта</t>
-  </si>
-  <si>
-    <t>Контрольная работа №3  «Логические основы обработки информации»</t>
-  </si>
-  <si>
-    <t>Практическая работа №4 «Форматирование документа»</t>
-  </si>
-  <si>
-    <t>Практическая работа №5 «Создание математических текстов»</t>
-  </si>
-  <si>
-    <t>Практическая работа №6 «Вычисления по формулам»</t>
-  </si>
-  <si>
-    <t>Практическая работа №7 «Встроенные функции. Передача данных между листами»</t>
-  </si>
-  <si>
-    <t>Практическая работа №8 «Деловая графика»</t>
-  </si>
-  <si>
-    <t>Фильтрация данных.Практическая работа №9 «Фильтрация данных»</t>
-  </si>
-  <si>
-    <t>Практическая работа №10 «Задачи на поиск решения и подбор параметров»</t>
-  </si>
-  <si>
-    <t>Практическая работа №10«Задачи на поиск решения и подбор параметров»</t>
-  </si>
-  <si>
-    <t>Контрольная работа №4  «Технологии табличных вычислений»</t>
-  </si>
-  <si>
-    <t>Оформление и разработка сайта. Практическая работа №11 «Создание простейшего web-сайта по образцу»</t>
-  </si>
-  <si>
-    <t>Оформление и разработка сайта. Практическая работа №12 «Разработка  web-сайта на языке HTML»</t>
-  </si>
-  <si>
-    <t>Создание гиперссылок и таблиц. Практическая работа №13 «Разработка  web-сайта на языке HTML с использованием таблиц и гиперссылок»</t>
-  </si>
-  <si>
-    <t>Создание гиперссылок и таблиц. Практическая работа №13 «Создание   web-сайта с использованием конструктора сайтов»</t>
-  </si>
-  <si>
-    <t>Сроки планируемые</t>
-  </si>
-  <si>
-    <t xml:space="preserve">№ </t>
-  </si>
-  <si>
-    <t>Тема урока</t>
+    <t xml:space="preserve">Решение логических задач </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Логические функции на области числовых значений </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +212,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -244,8 +259,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -261,16 +277,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -548,29 +567,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="3"/>
     <col min="2" max="2" width="56.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>51</v>
+      <c r="A1" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.3">
@@ -754,7 +772,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C18" s="6">
         <v>44134</v>
@@ -765,7 +783,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C19" s="6">
         <v>44134</v>
@@ -776,7 +794,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="6">
         <v>44148</v>
@@ -787,7 +805,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="6">
         <v>44148</v>
@@ -798,7 +816,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="6">
         <v>44155</v>
@@ -809,7 +827,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="6">
         <v>44155</v>
@@ -820,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="6">
         <v>44162</v>
@@ -831,7 +849,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C25" s="6">
         <v>44162</v>
@@ -842,7 +860,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C26" s="6">
         <v>44169</v>
@@ -853,7 +871,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C27" s="6">
         <v>44169</v>
@@ -864,7 +882,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C28" s="6">
         <v>44176</v>
@@ -875,7 +893,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C29" s="6">
         <v>44176</v>
@@ -886,7 +904,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30" s="6">
         <v>44183</v>
@@ -897,7 +915,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C31" s="6">
         <v>44183</v>
@@ -908,7 +926,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="6">
         <v>44190</v>
@@ -919,7 +937,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33" s="6">
         <v>44190</v>
@@ -930,7 +948,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C34" s="6">
         <v>44211</v>
@@ -941,7 +959,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C35" s="6">
         <v>44211</v>
@@ -952,7 +970,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C36" s="6">
         <v>44218</v>
@@ -963,7 +981,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C37" s="6">
         <v>44218</v>
@@ -974,7 +992,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C38" s="6">
         <v>44225</v>
@@ -985,7 +1003,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C39" s="6">
         <v>44225</v>
@@ -996,7 +1014,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C40" s="6">
         <v>44232</v>
@@ -1007,7 +1025,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C41" s="6">
         <v>44232</v>
@@ -1018,7 +1036,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C42" s="6">
         <v>44239</v>
@@ -1029,7 +1047,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C43" s="6">
         <v>44239</v>
@@ -1040,7 +1058,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C44" s="6">
         <v>44246</v>
@@ -1051,7 +1069,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C45" s="6">
         <v>44246</v>
@@ -1062,7 +1080,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C46" s="6">
         <v>44253</v>
@@ -1073,7 +1091,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C47" s="6">
         <v>44253</v>
@@ -1084,267 +1102,260 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C48" s="6">
         <v>44260</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C49" s="6">
         <v>44260</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C50" s="6">
         <v>44267</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C51" s="6">
         <v>44267</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C52" s="6">
         <v>44274</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C53" s="6">
         <v>44274</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C54" s="6">
         <v>44281</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C55" s="6">
         <v>44281</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C56" s="6">
         <v>44288</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C57" s="6">
         <v>44288</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C58" s="6">
         <v>44295</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C59" s="6">
         <v>44295</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C60" s="6">
         <v>44302</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C61" s="6">
         <v>44302</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C62" s="6">
         <v>44309</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C63" s="6">
         <v>44309</v>
       </c>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C64" s="6">
         <v>44316</v>
       </c>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C65" s="6">
         <v>44316</v>
       </c>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C66" s="6">
         <v>44330</v>
       </c>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:3" ht="54" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C67" s="6">
         <v>44330</v>
       </c>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:3" ht="54" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C68" s="6">
         <v>44337</v>
       </c>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:3" ht="54" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C69" s="6">
         <v>44337</v>
       </c>
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:3" ht="54" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C70" s="6">
         <v>44344</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="54" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C71" s="6">
         <v>44344</v>

--- a/программы/10 класс. Практикум. Календарно-тематическое планирование.xlsx
+++ b/программы/10 класс. Практикум. Календарно-тематическое планирование.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lot-w\Documents\lot\teacher\программы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Лектор\lot\teacher\программы\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>Позиционные системы счисления. Основные понятия</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Создание гиперссылок и таблиц. Практическая работа №13 «Разработка  web-сайта на языке HTML с использованием таблиц и гиперссылок»</t>
   </si>
   <si>
-    <t>Создание гиперссылок и таблиц. Практическая работа №13 «Создание   web-сайта с использованием конструктора сайтов»</t>
-  </si>
-  <si>
     <t>Сроки планируемые</t>
   </si>
   <si>
@@ -192,12 +189,15 @@
   </si>
   <si>
     <t xml:space="preserve">Логические функции на области числовых значений </t>
+  </si>
+  <si>
+    <t>Сроки реализуемые</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,31 +567,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="56.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="56.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="7" customWidth="1"/>
+    <col min="4" max="5" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -601,8 +605,11 @@
       <c r="C2" s="6">
         <v>44078</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="D2" s="6">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -612,8 +619,11 @@
       <c r="C3" s="6">
         <v>44078</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="D3" s="6">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -623,8 +633,11 @@
       <c r="C4" s="6">
         <v>44085</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D4" s="6">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -634,8 +647,11 @@
       <c r="C5" s="6">
         <v>44085</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D5" s="6">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -645,8 +661,11 @@
       <c r="C6" s="6">
         <v>44092</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D6" s="6">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -656,8 +675,11 @@
       <c r="C7" s="6">
         <v>44092</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D7" s="6">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -667,8 +689,11 @@
       <c r="C8" s="6">
         <v>44099</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D8" s="6">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -678,8 +703,11 @@
       <c r="C9" s="6">
         <v>44099</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D9" s="6">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -689,8 +717,11 @@
       <c r="C10" s="6">
         <v>44106</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D10" s="6">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -700,8 +731,11 @@
       <c r="C11" s="6">
         <v>44106</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D11" s="6">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -711,8 +745,11 @@
       <c r="C12" s="6">
         <v>44113</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D12" s="6">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -722,8 +759,11 @@
       <c r="C13" s="6">
         <v>44113</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D13" s="6">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -733,8 +773,11 @@
       <c r="C14" s="6">
         <v>44120</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D14" s="6">
+        <v>44134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -744,8 +787,11 @@
       <c r="C15" s="6">
         <v>44120</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D15" s="6">
+        <v>44134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -755,8 +801,11 @@
       <c r="C16" s="6">
         <v>44127</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D16" s="6">
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -766,30 +815,39 @@
       <c r="C17" s="6">
         <v>44127</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D17" s="6">
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="6">
         <v>44134</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D18" s="6">
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="6">
         <v>44134</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D19" s="6">
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -799,8 +857,11 @@
       <c r="C20" s="6">
         <v>44148</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D20" s="6">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -810,8 +871,11 @@
       <c r="C21" s="6">
         <v>44148</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D21" s="6">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -821,8 +885,11 @@
       <c r="C22" s="6">
         <v>44155</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D22" s="6">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -832,8 +899,11 @@
       <c r="C23" s="6">
         <v>44155</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="D23" s="6">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -843,63 +913,81 @@
       <c r="C24" s="6">
         <v>44162</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D24" s="6">
+        <v>44169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="6">
         <v>44162</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D25" s="6">
+        <v>44169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="6">
         <v>44169</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D26" s="6">
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="6">
         <v>44169</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D27" s="6">
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="6">
         <v>44176</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D28" s="6">
+        <v>44183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="6">
         <v>44176</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="D29" s="6">
+        <v>44183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -909,19 +997,25 @@
       <c r="C30" s="6">
         <v>44183</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="D30" s="6">
+        <v>44190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="6">
         <v>44183</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="D31" s="6">
+        <v>44190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -931,8 +1025,11 @@
       <c r="C32" s="6">
         <v>44190</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D32" s="6">
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -942,8 +1039,11 @@
       <c r="C33" s="6">
         <v>44190</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D33" s="6">
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -953,8 +1053,11 @@
       <c r="C34" s="6">
         <v>44211</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D34" s="6">
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -964,8 +1067,11 @@
       <c r="C35" s="6">
         <v>44211</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D35" s="6">
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -975,8 +1081,11 @@
       <c r="C36" s="6">
         <v>44218</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D36" s="6">
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -986,8 +1095,11 @@
       <c r="C37" s="6">
         <v>44218</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D37" s="6">
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -997,8 +1109,11 @@
       <c r="C38" s="6">
         <v>44225</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D38" s="6">
+        <v>44239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1008,8 +1123,11 @@
       <c r="C39" s="6">
         <v>44225</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D39" s="6">
+        <v>44239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1019,8 +1137,11 @@
       <c r="C40" s="6">
         <v>44232</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D40" s="6">
+        <v>44246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1030,8 +1151,11 @@
       <c r="C41" s="6">
         <v>44232</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="D41" s="6">
+        <v>44246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1041,8 +1165,11 @@
       <c r="C42" s="6">
         <v>44239</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="D42" s="6">
+        <v>44253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1052,8 +1179,11 @@
       <c r="C43" s="6">
         <v>44239</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D43" s="6">
+        <v>44253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1063,8 +1193,11 @@
       <c r="C44" s="6">
         <v>44246</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="D44" s="6">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1074,8 +1207,11 @@
       <c r="C45" s="6">
         <v>44246</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="D45" s="6">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1085,8 +1221,11 @@
       <c r="C46" s="6">
         <v>44253</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="D46" s="6">
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1096,8 +1235,11 @@
       <c r="C47" s="6">
         <v>44253</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="D47" s="6">
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1107,8 +1249,11 @@
       <c r="C48" s="6">
         <v>44260</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="D48" s="6">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1118,8 +1263,11 @@
       <c r="C49" s="6">
         <v>44260</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D49" s="6">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1129,8 +1277,11 @@
       <c r="C50" s="6">
         <v>44267</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D50" s="6">
+        <v>44281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1140,8 +1291,11 @@
       <c r="C51" s="6">
         <v>44267</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D51" s="6">
+        <v>44281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1151,8 +1305,11 @@
       <c r="C52" s="6">
         <v>44274</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D52" s="6">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1162,8 +1319,11 @@
       <c r="C53" s="6">
         <v>44274</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="D53" s="6">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1173,8 +1333,11 @@
       <c r="C54" s="6">
         <v>44281</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D54" s="6">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1184,8 +1347,11 @@
       <c r="C55" s="6">
         <v>44281</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D55" s="6">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1195,8 +1361,11 @@
       <c r="C56" s="6">
         <v>44288</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="D56" s="6">
+        <v>44302</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1206,8 +1375,11 @@
       <c r="C57" s="6">
         <v>44288</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="D57" s="6">
+        <v>44302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1217,8 +1389,11 @@
       <c r="C58" s="6">
         <v>44295</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="D58" s="6">
+        <v>44309</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1228,8 +1403,11 @@
       <c r="C59" s="6">
         <v>44295</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="D59" s="6">
+        <v>44309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1239,8 +1417,11 @@
       <c r="C60" s="6">
         <v>44302</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D60" s="6">
+        <v>44309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1250,8 +1431,11 @@
       <c r="C61" s="6">
         <v>44302</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D61" s="6">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1261,19 +1445,25 @@
       <c r="C62" s="6">
         <v>44309</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D62" s="6">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C63" s="6">
         <v>44309</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D63" s="6">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1283,30 +1473,39 @@
       <c r="C64" s="6">
         <v>44316</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D64" s="6">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C65" s="6">
         <v>44316</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="D65" s="6">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C66" s="6">
         <v>44330</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+      <c r="D66" s="6">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1316,50 +1515,47 @@
       <c r="C67" s="6">
         <v>44330</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+      <c r="D67" s="6">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C68" s="6">
         <v>44337</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+      <c r="D68" s="6">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C69" s="6">
         <v>44337</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="54" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="6">
+      <c r="D69" s="6">
         <v>44344</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="54" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" s="6">
-        <v>44344</v>
-      </c>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
